--- a/CODIGO_EMISSOR.xlsx
+++ b/CODIGO_EMISSOR.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\tratamento-assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEED0A1A-5160-4051-B9F5-E088508215AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD270442-6D4C-4DD9-BB9C-1BD31EFF2130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="4365" windowWidth="20775" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27795" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$146</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="155">
   <si>
     <t>EMISSOR</t>
   </si>
@@ -259,9 +262,6 @@
     <t>BANCO VOLKSWAGEN</t>
   </si>
   <si>
-    <t>BANCO VOTORANTIM BV</t>
-  </si>
-  <si>
     <t>BANCO XCMG BRASIL</t>
   </si>
   <si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>BANCO BV</t>
+  </si>
+  <si>
+    <t>CONGLOMERADO: MASTER, WILL, VOITER E LETSBANK</t>
   </si>
 </sst>
 </file>
@@ -502,12 +508,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -537,9 +549,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -844,15 +861,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -874,7 +899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -885,7 +910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -896,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -907,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -918,7 +943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -929,7 +954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -940,7 +965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -951,7 +976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -962,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -973,7 +998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -984,7 +1009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -994,8 +1019,11 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1005,8 +1033,11 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1016,8 +1047,11 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1027,8 +1061,11 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1038,8 +1075,11 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1049,8 +1089,11 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1060,8 +1103,11 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1071,8 +1117,11 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1082,8 +1131,11 @@
       <c r="C21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1093,8 +1145,11 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1104,8 +1159,11 @@
       <c r="C23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1116,7 +1174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1127,7 +1185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1138,7 +1196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1149,7 +1207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1160,7 +1218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1171,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1182,7 +1240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1193,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1271,13 +1329,13 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1315,13 +1373,13 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1337,13 +1395,13 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1646,7 +1704,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -1657,7 +1715,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -1668,7 +1726,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -1679,7 +1737,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -1690,7 +1748,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -1701,7 +1759,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -1712,7 +1770,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -1723,7 +1781,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -1734,7 +1792,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -1745,7 +1803,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -1756,7 +1814,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -1767,7 +1825,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -1778,7 +1836,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -1789,7 +1847,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -1800,7 +1858,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -1811,7 +1869,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -1822,7 +1880,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -1833,7 +1891,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -1844,7 +1902,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -1855,7 +1913,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -1866,7 +1924,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -1877,7 +1935,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -1888,7 +1946,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -1899,7 +1957,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -1910,7 +1968,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -1921,7 +1979,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -1932,7 +1990,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -1943,7 +2001,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -1954,7 +2012,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -1965,7 +2023,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -1976,7 +2034,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -1987,7 +2045,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -1998,7 +2056,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -2009,7 +2067,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -2020,7 +2078,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -2031,7 +2089,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -2042,7 +2100,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -2053,7 +2111,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -2064,7 +2122,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -2075,7 +2133,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -2086,7 +2144,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -2097,7 +2155,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -2108,7 +2166,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -2119,7 +2177,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -2130,7 +2188,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -2141,7 +2199,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -2152,7 +2210,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -2163,7 +2221,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120">
         <v>119</v>
@@ -2174,7 +2232,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121">
         <v>120</v>
@@ -2185,7 +2243,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122">
         <v>121</v>
@@ -2196,7 +2254,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123">
         <v>122</v>
@@ -2207,7 +2265,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124">
         <v>123</v>
@@ -2218,7 +2276,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -2229,7 +2287,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -2240,7 +2298,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127">
         <v>126</v>
@@ -2251,7 +2309,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -2262,7 +2320,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -2273,7 +2331,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130">
         <v>129</v>
@@ -2284,7 +2342,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131">
         <v>130</v>
@@ -2295,7 +2353,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -2306,7 +2364,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133">
         <v>132</v>
@@ -2317,7 +2375,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -2328,7 +2386,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135">
         <v>134</v>
@@ -2339,7 +2397,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -2350,7 +2408,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137">
         <v>136</v>
@@ -2361,7 +2419,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138">
         <v>137</v>
@@ -2372,7 +2430,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139">
         <v>138</v>
@@ -2383,7 +2441,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140">
         <v>139</v>
@@ -2393,19 +2451,19 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>147</v>
-      </c>
-      <c r="B141">
+      <c r="A141" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141" s="3">
         <v>140</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142">
         <v>141</v>
@@ -2416,7 +2474,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143">
         <v>142</v>
@@ -2427,7 +2485,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144">
         <v>143</v>
@@ -2438,27 +2496,39 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145">
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C146" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" s="2">
+        <v>145</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C146" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/CODIGO_EMISSOR.xlsx
+++ b/CODIGO_EMISSOR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\categorizador-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD270442-6D4C-4DD9-BB9C-1BD31EFF2130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FBD0BC-2FD7-42C2-A0EB-A596B8BAAA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27795" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="157">
   <si>
     <t>EMISSOR</t>
   </si>
@@ -488,13 +488,19 @@
   </si>
   <si>
     <t>CONGLOMERADO: MASTER, WILL, VOITER E LETSBANK</t>
+  </si>
+  <si>
+    <t>NEON/BIORC SCFI</t>
+  </si>
+  <si>
+    <t>OMNI BANCO/OMNI SCFI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +513,19 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -518,11 +537,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -545,20 +564,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L147"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,1653 +910,1675 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>34</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>36</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="5">
         <v>38</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="5">
         <v>42</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="5">
         <v>44</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>45</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>47</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>48</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>55</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>56</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>57</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>58</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>59</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>60</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>61</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>62</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>63</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
         <v>64</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
         <v>65</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
         <v>66</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
         <v>67</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>68</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>69</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>70</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>71</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5">
         <v>72</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>73</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>75</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>76</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>77</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>78</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>79</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>80</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>81</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>82</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>83</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>84</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>85</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>86</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>87</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>88</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
         <v>89</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="5">
         <v>90</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
         <v>91</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
         <v>92</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
         <v>93</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
         <v>94</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="4">
         <v>95</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="4">
         <v>96</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="4">
         <v>97</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
         <v>98</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="4">
         <v>99</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="4">
         <v>100</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="4">
         <v>101</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="4">
         <v>102</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="4">
         <v>103</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="4">
         <v>104</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="4">
         <v>105</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="4">
         <v>106</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="4">
         <v>107</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="4">
         <v>108</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="4">
         <v>109</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
         <v>110</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="4">
         <v>111</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
         <v>112</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
         <v>113</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <v>114</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <v>115</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <v>116</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
         <v>117</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
         <v>118</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="4">
         <v>119</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="4">
         <v>120</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="4">
         <v>121</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="4">
         <v>122</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="4">
         <v>123</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="4">
         <v>124</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="4">
         <v>125</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="4">
         <v>126</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="4">
         <v>127</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="4">
         <v>128</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="4">
         <v>129</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="4">
         <v>130</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="4">
         <v>131</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="4">
         <v>132</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="4">
         <v>133</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="4">
         <v>134</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="4">
         <v>135</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="4">
         <v>136</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="4">
         <v>137</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="4">
         <v>138</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="4">
         <v>139</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="5">
         <v>140</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="4">
         <v>141</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="4">
         <v>142</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="4">
         <v>143</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="4">
         <v>144</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+    <row r="147" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="4">
         <v>145</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
+      <c r="C147" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" s="4">
+        <v>146</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" s="4">
+        <v>147</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/CODIGO_EMISSOR.xlsx
+++ b/CODIGO_EMISSOR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\tratamento-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD270442-6D4C-4DD9-BB9C-1BD31EFF2130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79F4BF2-C1DD-4A02-9E51-A24A3CDC6BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27795" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$150</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="158">
   <si>
     <t>EMISSOR</t>
   </si>
@@ -488,13 +488,22 @@
   </si>
   <si>
     <t>CONGLOMERADO: MASTER, WILL, VOITER E LETSBANK</t>
+  </si>
+  <si>
+    <t>NEON/BIORC SCFI</t>
+  </si>
+  <si>
+    <t>OMNI BANCO/OMNI SCFI</t>
+  </si>
+  <si>
+    <t>PARANÁ BANCO S.A.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +515,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -522,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -545,11 +562,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -559,6 +587,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L147"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,8 +2557,41 @@
         <v>9</v>
       </c>
     </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" s="5">
+        <v>146</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" s="5">
+        <v>147</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150" s="5">
+        <v>148</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C146" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C150" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/CODIGO_EMISSOR.xlsx
+++ b/CODIGO_EMISSOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\tratamento-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79F4BF2-C1DD-4A02-9E51-A24A3CDC6BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51952D99-FA29-4708-9F0B-D92D8023A6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27795" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9150" yWindow="3825" windowWidth="11730" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -894,13 +894,13 @@
   <dimension ref="A1:L150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>

--- a/CODIGO_EMISSOR.xlsx
+++ b/CODIGO_EMISSOR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\tratamento-assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\categorizador-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51952D99-FA29-4708-9F0B-D92D8023A6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F2B038-5C39-44A3-83E1-2334A89FB89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="3825" windowWidth="11730" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20745" yWindow="2850" windowWidth="16530" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="159">
   <si>
     <t>EMISSOR</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>PARANÁ BANCO S.A.</t>
+  </si>
+  <si>
+    <t>OURIBANK S.A. BANCO MÚLTIPLO</t>
   </si>
 </sst>
 </file>
@@ -891,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,6 +2593,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" s="5">
+        <v>149</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C150" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CODIGO_EMISSOR.xlsx
+++ b/CODIGO_EMISSOR.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\categorizador-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F2B038-5C39-44A3-83E1-2334A89FB89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3C83E7-3A7A-4D5E-B073-8DD86C943B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20745" yWindow="2850" windowWidth="16530" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27945" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$151</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="160">
   <si>
     <t>EMISSOR</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>OURIBANK S.A. BANCO MÚLTIPLO</t>
+  </si>
+  <si>
+    <t>BANCO PLENO S.A. (VOITER)</t>
   </si>
 </sst>
 </file>
@@ -894,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2604,8 +2607,19 @@
         <v>7</v>
       </c>
     </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" s="5">
+        <v>150</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C150" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C151" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/CODIGO_EMISSOR.xlsx
+++ b/CODIGO_EMISSOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\categorizador-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3C83E7-3A7A-4D5E-B073-8DD86C943B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB483C8F-A915-407F-8E36-2EB4495B3501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27945" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,9 +487,6 @@
     <t>BANCO BV</t>
   </si>
   <si>
-    <t>CONGLOMERADO: MASTER, WILL, VOITER E LETSBANK</t>
-  </si>
-  <si>
     <t>NEON/BIORC SCFI</t>
   </si>
   <si>
@@ -503,6 +500,9 @@
   </si>
   <si>
     <t>BANCO PLENO S.A. (VOITER)</t>
+  </si>
+  <si>
+    <t>CONGLOMERADO: MASTER, WILL E LETSBANK</t>
   </si>
 </sst>
 </file>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="147" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B147" s="2">
         <v>145</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B148" s="5">
         <v>146</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B149" s="5">
         <v>147</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B150" s="5">
         <v>148</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B151" s="5">
         <v>149</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B152" s="5">
         <v>150</v>

--- a/CODIGO_EMISSOR.xlsx
+++ b/CODIGO_EMISSOR.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\categorizador-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB483C8F-A915-407F-8E36-2EB4495B3501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCB4439-1063-4E92-B90D-F3D779F8130D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27945" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$151</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -262,6 +259,9 @@
     <t>BANCO VOLKSWAGEN</t>
   </si>
   <si>
+    <t>BANCO BV</t>
+  </si>
+  <si>
     <t>BANCO XCMG BRASIL</t>
   </si>
   <si>
@@ -481,35 +481,32 @@
     <t xml:space="preserve">S4 </t>
   </si>
   <si>
+    <t>CONGLOMERADO: MASTER, WILL E LETSBANK</t>
+  </si>
+  <si>
+    <t>NEON/BIORC SCFI</t>
+  </si>
+  <si>
+    <t>OMNI BANCO/OMNI SCFI</t>
+  </si>
+  <si>
+    <t>PARANÁ BANCO S.A.</t>
+  </si>
+  <si>
+    <t>OURIBANK S.A. BANCO MÚLTIPLO</t>
+  </si>
+  <si>
+    <t>BANCO PLENO S.A. (VOITER)</t>
+  </si>
+  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>BANCO BV</t>
-  </si>
-  <si>
-    <t>NEON/BIORC SCFI</t>
-  </si>
-  <si>
-    <t>OMNI BANCO/OMNI SCFI</t>
-  </si>
-  <si>
-    <t>PARANÁ BANCO S.A.</t>
-  </si>
-  <si>
-    <t>OURIBANK S.A. BANCO MÚLTIPLO</t>
-  </si>
-  <si>
-    <t>BANCO PLENO S.A. (VOITER)</t>
-  </si>
-  <si>
-    <t>CONGLOMERADO: MASTER, WILL E LETSBANK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,29 +520,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -568,33 +552,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA9D08E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA9D08E"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -897,23 +863,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -935,7 +898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -946,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -957,7 +920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -968,7 +931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -979,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -990,7 +953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1001,7 +964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1023,7 +986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1034,7 +997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1045,7 +1008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1055,11 +1018,8 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1069,11 +1029,8 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1083,11 +1040,8 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1097,11 +1051,8 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1111,11 +1062,8 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1125,11 +1073,8 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1139,11 +1084,8 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1153,11 +1095,8 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1167,11 +1106,8 @@
       <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1181,11 +1117,8 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1195,11 +1128,8 @@
       <c r="C23" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1210,7 +1140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1221,7 +1151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1232,7 +1162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1243,7 +1173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1254,7 +1184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1265,7 +1195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1276,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1287,7 +1217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1365,13 +1295,13 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1409,13 +1339,13 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1431,13 +1361,13 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1740,7 +1670,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -1751,7 +1681,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -1762,7 +1692,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -1773,7 +1703,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -1784,7 +1714,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -1795,7 +1725,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -1806,7 +1736,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -1817,7 +1747,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -1828,7 +1758,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -1839,7 +1769,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -1850,7 +1780,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -1861,7 +1791,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -1872,7 +1802,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -1883,7 +1813,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -1894,7 +1824,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -1905,7 +1835,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -1916,7 +1846,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -1927,7 +1857,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -1938,7 +1868,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -1949,7 +1879,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -1960,7 +1890,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -1971,7 +1901,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -1982,7 +1912,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -1993,7 +1923,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -2004,7 +1934,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -2015,7 +1945,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -2026,7 +1956,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -2037,7 +1967,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -2048,7 +1978,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -2059,7 +1989,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -2070,7 +2000,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -2081,7 +2011,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -2092,7 +2022,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -2103,7 +2033,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -2114,7 +2044,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -2125,7 +2055,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -2136,7 +2066,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -2147,7 +2077,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -2158,7 +2088,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -2169,7 +2099,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -2180,7 +2110,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -2191,7 +2121,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -2202,7 +2132,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -2213,7 +2143,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -2224,7 +2154,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -2235,7 +2165,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -2246,7 +2176,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -2257,7 +2187,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B120">
         <v>119</v>
@@ -2268,7 +2198,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B121">
         <v>120</v>
@@ -2279,7 +2209,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B122">
         <v>121</v>
@@ -2290,7 +2220,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B123">
         <v>122</v>
@@ -2301,7 +2231,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B124">
         <v>123</v>
@@ -2312,7 +2242,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -2323,7 +2253,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -2334,7 +2264,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B127">
         <v>126</v>
@@ -2345,7 +2275,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -2356,7 +2286,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -2367,7 +2297,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B130">
         <v>129</v>
@@ -2378,7 +2308,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B131">
         <v>130</v>
@@ -2389,7 +2319,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -2400,7 +2330,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B133">
         <v>132</v>
@@ -2411,7 +2341,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -2422,7 +2352,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B135">
         <v>134</v>
@@ -2433,7 +2363,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -2444,7 +2374,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B137">
         <v>136</v>
@@ -2455,7 +2385,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B138">
         <v>137</v>
@@ -2466,7 +2396,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B139">
         <v>138</v>
@@ -2477,7 +2407,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B140">
         <v>139</v>
@@ -2487,19 +2417,19 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B141" s="3">
+      <c r="A141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141">
         <v>140</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B142">
         <v>141</v>
@@ -2510,7 +2440,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B143">
         <v>142</v>
@@ -2521,7 +2451,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B144">
         <v>143</v>
@@ -2532,94 +2462,93 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B145">
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>152</v>
-      </c>
-      <c r="B146" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B147" s="2">
-        <v>145</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B148" s="5">
-        <v>146</v>
-      </c>
-      <c r="C148" s="5" t="s">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B149" s="5">
-        <v>147</v>
-      </c>
-      <c r="C149" s="5" t="s">
+      <c r="A149" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B150" s="5">
-        <v>148</v>
-      </c>
-      <c r="C150" s="5" t="s">
+      <c r="A150" t="s">
+        <v>157</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
+      <c r="C150" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>157</v>
-      </c>
-      <c r="B151" s="5">
-        <v>149</v>
-      </c>
-      <c r="C151" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
+      <c r="C151" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B152" s="5">
-        <v>150</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>7</v>
+      <c r="A152" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C151" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/CODIGO_EMISSOR.xlsx
+++ b/CODIGO_EMISSOR.xlsx
@@ -8,14 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\categorizador-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCB4439-1063-4E92-B90D-F3D779F8130D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B24DBA4-467F-4F35-8D46-C16831DC5816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$152</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -865,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,6 +2563,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C152" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/CODIGO_EMISSOR.xlsx
+++ b/CODIGO_EMISSOR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\categorizador-assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B24DBA4-467F-4F35-8D46-C16831DC5816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88F2871-0860-434E-BD15-94099A7122DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="2775" windowWidth="15345" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,9 +477,6 @@
     <t>VIA CERTA SCFI</t>
   </si>
   <si>
-    <t>WILL BANK (MASTER)</t>
-  </si>
-  <si>
     <t>ZEMA SCFI</t>
   </si>
   <si>
@@ -514,6 +511,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>WILL BANK</t>
   </si>
 </sst>
 </file>
@@ -877,10 +877,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -912,7 +913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -923,7 +924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -934,7 +935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -945,7 +946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -956,7 +957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -967,7 +968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -978,7 +979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -989,7 +990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1121,7 +1122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1374,7 +1375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -1836,7 +1837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -1891,7 +1892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -1968,7 +1969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -2144,7 +2145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -2177,7 +2178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -2432,7 +2433,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B141">
         <v>140</v>
@@ -2441,9 +2442,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142">
         <v>141</v>
@@ -2452,9 +2453,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143">
         <v>142</v>
@@ -2463,9 +2464,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144">
         <v>143</v>
@@ -2474,20 +2475,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145">
         <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B146">
         <v>145</v>
@@ -2496,9 +2497,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B147">
         <v>146</v>
@@ -2507,9 +2508,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B148">
         <v>147</v>
@@ -2518,9 +2519,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B149">
         <v>148</v>
@@ -2529,9 +2530,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B150">
         <v>149</v>
@@ -2540,9 +2541,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B151">
         <v>150</v>
@@ -2551,19 +2552,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C152" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C152" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CONGLOMERADO: MASTER, WILL E LETSBANK"/>
+        <filter val="WILL BANK"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>